--- a/03.COMP 513 - Computational Mathematics and Models I/04.COMP_513_Assignment_4_ex2007.xlsx
+++ b/03.COMP 513 - Computational Mathematics and Models I/04.COMP_513_Assignment_4_ex2007.xlsx
@@ -625,16 +625,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -643,20 +634,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -674,7 +653,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1878,7 +1878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:L72"/>
     </sheetView>
   </sheetViews>
@@ -1892,12 +1892,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="4"/>
+      <c r="A2" s="3"/>
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -1907,10 +1907,10 @@
       <c r="D2" s="1">
         <v>-3</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>4</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="1">
         <v>1</v>
       </c>
@@ -1920,12 +1920,12 @@
       <c r="J2" s="1">
         <v>-3</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="4"/>
+      <c r="A3" s="3"/>
       <c r="B3" s="1">
         <v>3</v>
       </c>
@@ -1935,13 +1935,13 @@
       <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="F3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="16">
         <v>2</v>
       </c>
       <c r="H3" s="1">
@@ -1953,12 +1953,12 @@
       <c r="J3" s="1">
         <v>2</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="4"/>
+      <c r="A4" s="3"/>
       <c r="B4" s="1">
         <v>-2</v>
       </c>
@@ -1968,11 +1968,11 @@
       <c r="D4" s="1">
         <v>-6</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>-8</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="6"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="16"/>
       <c r="H4" s="1">
         <v>-1</v>
       </c>
@@ -1982,12 +1982,12 @@
       <c r="J4" s="1">
         <v>-3</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="3">
         <v>-4</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3"/>
       <c r="B5" s="1">
         <v>0</v>
       </c>
@@ -1997,10 +1997,10 @@
       <c r="D5" s="1">
         <v>-1</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="1">
         <v>0</v>
       </c>
@@ -2010,12 +2010,12 @@
       <c r="J5" s="1">
         <v>-1</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="G7" s="4"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="1">
         <v>0</v>
       </c>
@@ -2025,16 +2025,16 @@
       <c r="J7" s="1">
         <v>-6</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6">
+      <c r="F8" s="11"/>
+      <c r="G8" s="16">
         <v>2</v>
       </c>
       <c r="H8" s="1">
@@ -2046,14 +2046,14 @@
       <c r="J8" s="1">
         <v>2</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="16"/>
       <c r="H9" s="1">
         <v>-1</v>
       </c>
@@ -2063,12 +2063,12 @@
       <c r="J9" s="1">
         <v>-3</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="3">
         <v>-4</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="G10" s="4"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="1">
         <v>0</v>
       </c>
@@ -2078,15 +2078,15 @@
       <c r="J10" s="1">
         <v>-1</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="F12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="6" t="s">
+      <c r="F12" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="16" t="s">
         <v>2</v>
       </c>
       <c r="H12" s="1">
@@ -2095,58 +2095,58 @@
       <c r="I12" s="1">
         <v>-1</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="E13" s="8"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="6"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="16"/>
       <c r="H13" s="1">
         <v>-1</v>
       </c>
       <c r="I13" s="1">
         <v>-2</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>-4</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="E14" s="8"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="6"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="1">
         <v>0</v>
       </c>
       <c r="I14" s="1">
         <v>3</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18.75" customHeight="1">
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="4"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="1">
         <v>0</v>
       </c>
       <c r="I16" s="1">
         <v>-7</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="3">
         <v>-8</v>
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="4">
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="3">
         <v>-12</v>
       </c>
       <c r="H17" s="1">
@@ -2155,45 +2155,45 @@
       <c r="I17" s="1">
         <v>-2</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="3">
         <v>-4</v>
       </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="4"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="1">
         <v>0</v>
       </c>
       <c r="I18" s="1">
         <v>3</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:10">
-      <c r="F20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="9" t="s">
+      <c r="F20" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="17" t="s">
         <v>4</v>
       </c>
       <c r="H20" s="1">
         <v>-7</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>-8</v>
       </c>
     </row>
     <row r="21" spans="2:10">
-      <c r="F21" s="5"/>
-      <c r="G21" s="9"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="17"/>
       <c r="H21" s="1">
         <v>3</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>2</v>
       </c>
     </row>
@@ -2204,10 +2204,10 @@
       <c r="G23" s="1">
         <v>12</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="5"/>
+      <c r="I23" s="11"/>
     </row>
     <row r="25" spans="2:10">
       <c r="F25" s="1" t="s">
@@ -2218,16 +2218,16 @@
       </c>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="8">
-        <v>1</v>
-      </c>
-      <c r="C27" s="8">
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
+      <c r="C27" s="4">
         <v>2</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="4">
         <v>-3</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>4</v>
       </c>
       <c r="F27" s="1">
@@ -2244,16 +2244,16 @@
       </c>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="8">
+      <c r="B28" s="4">
         <v>3</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="4">
         <v>-1</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="4">
         <v>2</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>4</v>
       </c>
       <c r="F28" s="1">
@@ -2270,16 +2270,16 @@
       </c>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="8">
+      <c r="B29" s="4">
         <v>-2</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="4">
         <v>-4</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="4">
         <v>-6</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>-8</v>
       </c>
       <c r="F29" s="1">
@@ -2296,16 +2296,16 @@
       </c>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="8">
-        <v>0</v>
-      </c>
-      <c r="C30" s="8">
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
         <v>3</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="4">
         <v>-1</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>2</v>
       </c>
       <c r="F30" s="1">
@@ -2322,24 +2322,24 @@
       </c>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" spans="2:11" ht="18.75" customHeight="1">
       <c r="B33" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="12"/>
-      <c r="D33" s="8">
-        <v>1</v>
-      </c>
-      <c r="E33" s="8">
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4">
         <v>2</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="4">
         <v>-3</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="3">
         <v>4</v>
       </c>
       <c r="H33" s="1">
@@ -2367,7 +2367,7 @@
       <c r="F34" s="1">
         <v>11</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="3">
         <v>-8</v>
       </c>
       <c r="H34" s="1">
@@ -2384,10 +2384,10 @@
       </c>
     </row>
     <row r="35" spans="2:11">
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="11"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="1">
         <v>0</v>
       </c>
@@ -2397,7 +2397,7 @@
       <c r="F35" s="1">
         <v>-12</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="3">
         <v>0</v>
       </c>
       <c r="H35" s="1">
@@ -2414,18 +2414,18 @@
       </c>
     </row>
     <row r="36" spans="2:11">
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="8">
-        <v>0</v>
-      </c>
-      <c r="E36" s="8">
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="4">
+        <v>0</v>
+      </c>
+      <c r="E36" s="4">
         <v>3</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="4">
         <v>-1</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="3">
         <v>2</v>
       </c>
       <c r="H36" s="1">
@@ -2442,20 +2442,20 @@
       </c>
     </row>
     <row r="38" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="8">
-        <v>1</v>
-      </c>
-      <c r="E38" s="8">
+      <c r="C38" s="11"/>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4">
         <v>2</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="4">
         <v>-3</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="3">
         <v>4</v>
       </c>
       <c r="H38" s="1">
@@ -2472,8 +2472,8 @@
       </c>
     </row>
     <row r="39" spans="2:11">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
       <c r="D39" s="1">
         <f t="array" ref="D39:K39">D34:K34*-1/7</f>
         <v>0</v>
@@ -2481,16 +2481,16 @@
       <c r="E39" s="1">
         <v>1</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="7">
         <v>-1.5714285714285714</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="6">
         <v>1.1428571428571428</v>
       </c>
-      <c r="H39" s="15">
+      <c r="H39" s="8">
         <v>0.42857142857142855</v>
       </c>
-      <c r="I39" s="15">
+      <c r="I39" s="8">
         <v>-0.14285714285714285</v>
       </c>
       <c r="J39" s="1">
@@ -2501,8 +2501,8 @@
       </c>
     </row>
     <row r="40" spans="2:11">
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
       <c r="D40" s="1">
         <v>0</v>
       </c>
@@ -2512,7 +2512,7 @@
       <c r="F40" s="1">
         <v>-12</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="3">
         <v>0</v>
       </c>
       <c r="H40" s="1">
@@ -2529,18 +2529,18 @@
       </c>
     </row>
     <row r="41" spans="2:11">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="8">
-        <v>0</v>
-      </c>
-      <c r="E41" s="8">
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="4">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
         <v>3</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="4">
         <v>-1</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="3">
         <v>2</v>
       </c>
       <c r="H41" s="1">
@@ -2561,23 +2561,23 @@
         <v>10</v>
       </c>
       <c r="C43" s="12"/>
-      <c r="D43" s="8">
+      <c r="D43" s="4">
         <f t="array" ref="D43:K43">D38:K38-2*(D39:K39)</f>
         <v>1</v>
       </c>
-      <c r="E43" s="8">
-        <v>0</v>
-      </c>
-      <c r="F43" s="16">
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="9">
         <v>0.14285714285714279</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G43" s="6">
         <v>1.7142857142857144</v>
       </c>
-      <c r="H43" s="15">
+      <c r="H43" s="8">
         <v>0.1428571428571429</v>
       </c>
-      <c r="I43" s="15">
+      <c r="I43" s="8">
         <v>0.2857142857142857</v>
       </c>
       <c r="J43" s="1">
@@ -2596,16 +2596,16 @@
       <c r="E44" s="1">
         <v>1</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F44" s="7">
         <v>-1.5714285714285714</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G44" s="6">
         <v>1.1428571428571428</v>
       </c>
-      <c r="H44" s="15">
+      <c r="H44" s="8">
         <v>0.42857142857142855</v>
       </c>
-      <c r="I44" s="15">
+      <c r="I44" s="8">
         <v>-0.14285714285714285</v>
       </c>
       <c r="J44" s="1">
@@ -2616,10 +2616,10 @@
       </c>
     </row>
     <row r="45" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="11"/>
+      <c r="C45" s="13"/>
       <c r="D45" s="1">
         <v>0</v>
       </c>
@@ -2629,7 +2629,7 @@
       <c r="F45" s="1">
         <v>-12</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="3">
         <v>0</v>
       </c>
       <c r="H45" s="1">
@@ -2646,8 +2646,8 @@
       </c>
     </row>
     <row r="46" spans="2:11">
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
       <c r="D46" s="1">
         <f t="array" ref="D46:K46">D41:K41-3*D39:K39</f>
         <v>0</v>
@@ -2655,16 +2655,16 @@
       <c r="E46" s="1">
         <v>0</v>
       </c>
-      <c r="F46" s="15">
+      <c r="F46" s="8">
         <v>3.7142857142857144</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G46" s="6">
         <v>-1.4285714285714284</v>
       </c>
-      <c r="H46" s="15">
+      <c r="H46" s="8">
         <v>-1.2857142857142856</v>
       </c>
-      <c r="I46" s="15">
+      <c r="I46" s="8">
         <v>0.42857142857142855</v>
       </c>
       <c r="J46" s="1">
@@ -2675,26 +2675,26 @@
       </c>
     </row>
     <row r="48" spans="2:11">
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C48" s="5"/>
+      <c r="C48" s="11"/>
       <c r="D48" s="1">
         <v>1</v>
       </c>
       <c r="E48" s="1">
         <v>0</v>
       </c>
-      <c r="F48" s="15">
+      <c r="F48" s="8">
         <v>0.14285714285714279</v>
       </c>
-      <c r="G48" s="15">
+      <c r="G48" s="8">
         <v>1.7142857142857144</v>
       </c>
-      <c r="H48" s="15">
+      <c r="H48" s="8">
         <v>0.1428571428571429</v>
       </c>
-      <c r="I48" s="15">
+      <c r="I48" s="8">
         <v>0.2857142857142857</v>
       </c>
       <c r="J48" s="1">
@@ -2705,24 +2705,24 @@
       </c>
     </row>
     <row r="49" spans="2:11">
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
       <c r="D49" s="1">
         <v>0</v>
       </c>
       <c r="E49" s="1">
         <v>1</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F49" s="8">
         <v>-1.5714285714285714</v>
       </c>
-      <c r="G49" s="15">
+      <c r="G49" s="8">
         <v>1.1428571428571428</v>
       </c>
-      <c r="H49" s="15">
+      <c r="H49" s="8">
         <v>0.42857142857142855</v>
       </c>
-      <c r="I49" s="15">
+      <c r="I49" s="8">
         <v>-0.14285714285714285</v>
       </c>
       <c r="J49" s="1">
@@ -2733,8 +2733,8 @@
       </c>
     </row>
     <row r="50" spans="2:11">
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
       <c r="D50" s="1">
         <f t="array" ref="D50:K50">D45:K45/-12</f>
         <v>0</v>
@@ -2748,13 +2748,13 @@
       <c r="G50" s="1">
         <v>0</v>
       </c>
-      <c r="H50" s="15">
+      <c r="H50" s="8">
         <v>-0.16666666666666666</v>
       </c>
       <c r="I50" s="1">
         <v>0</v>
       </c>
-      <c r="J50" s="15">
+      <c r="J50" s="8">
         <v>-8.3333333333333329E-2</v>
       </c>
       <c r="K50" s="1">
@@ -2762,24 +2762,24 @@
       </c>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
       <c r="D51" s="1">
         <v>0</v>
       </c>
       <c r="E51" s="1">
         <v>0</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F51" s="8">
         <v>3.71428571428571</v>
       </c>
-      <c r="G51" s="15">
+      <c r="G51" s="8">
         <v>-1.4285714285714284</v>
       </c>
-      <c r="H51" s="15">
+      <c r="H51" s="8">
         <v>-1.2857142857142856</v>
       </c>
-      <c r="I51" s="15">
+      <c r="I51" s="8">
         <v>0.42857142857142855</v>
       </c>
       <c r="J51" s="1">
@@ -2804,16 +2804,16 @@
       <c r="F53" s="1">
         <v>0</v>
       </c>
-      <c r="G53" s="15">
+      <c r="G53" s="8">
         <v>1.7142857142857144</v>
       </c>
-      <c r="H53" s="15">
+      <c r="H53" s="8">
         <v>0.16666666666666671</v>
       </c>
-      <c r="I53" s="15">
+      <c r="I53" s="8">
         <v>0.2857142857142857</v>
       </c>
-      <c r="J53" s="15">
+      <c r="J53" s="8">
         <v>1.1904761904761899E-2</v>
       </c>
       <c r="K53" s="1">
@@ -2835,16 +2835,16 @@
       <c r="F54" s="1">
         <v>0</v>
       </c>
-      <c r="G54" s="15">
+      <c r="G54" s="8">
         <v>1.1428571428571428</v>
       </c>
-      <c r="H54" s="15">
+      <c r="H54" s="8">
         <v>0.16666666666666669</v>
       </c>
-      <c r="I54" s="15">
+      <c r="I54" s="8">
         <v>-0.14285714285714285</v>
       </c>
-      <c r="J54" s="15">
+      <c r="J54" s="8">
         <v>-0.13095238095238093</v>
       </c>
       <c r="K54" s="1">
@@ -2852,10 +2852,10 @@
       </c>
     </row>
     <row r="55" spans="2:11">
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="5"/>
+      <c r="C55" s="11"/>
       <c r="D55" s="1">
         <v>0</v>
       </c>
@@ -2865,16 +2865,16 @@
       <c r="F55" s="1">
         <v>1</v>
       </c>
-      <c r="G55" s="17">
-        <v>0</v>
-      </c>
-      <c r="H55" s="15">
+      <c r="G55" s="10">
+        <v>0</v>
+      </c>
+      <c r="H55" s="8">
         <v>-0.16666666666666666</v>
       </c>
-      <c r="I55" s="17">
-        <v>0</v>
-      </c>
-      <c r="J55" s="15">
+      <c r="I55" s="10">
+        <v>0</v>
+      </c>
+      <c r="J55" s="8">
         <v>-8.3333333333333329E-2</v>
       </c>
       <c r="K55" s="1">
@@ -2882,8 +2882,8 @@
       </c>
     </row>
     <row r="56" spans="2:11">
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
       <c r="D56" s="1">
         <f t="array" ref="D56:K56">D51:K51-F51*(D50:K50)</f>
         <v>0</v>
@@ -2894,16 +2894,16 @@
       <c r="F56" s="1">
         <v>0</v>
       </c>
-      <c r="G56" s="15">
+      <c r="G56" s="8">
         <v>-1.4285714285714284</v>
       </c>
-      <c r="H56" s="15">
+      <c r="H56" s="8">
         <v>-0.6666666666666673</v>
       </c>
-      <c r="I56" s="15">
+      <c r="I56" s="8">
         <v>0.42857142857142855</v>
       </c>
-      <c r="J56" s="15">
+      <c r="J56" s="8">
         <v>0.30952380952380915</v>
       </c>
       <c r="K56" s="1">
@@ -2911,10 +2911,10 @@
       </c>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="5"/>
+      <c r="C58" s="11"/>
       <c r="D58" s="1">
         <v>1</v>
       </c>
@@ -2924,16 +2924,16 @@
       <c r="F58" s="1">
         <v>0</v>
       </c>
-      <c r="G58" s="15">
+      <c r="G58" s="8">
         <v>1.7142857142857144</v>
       </c>
-      <c r="H58" s="15">
+      <c r="H58" s="8">
         <v>0.16666666666666671</v>
       </c>
-      <c r="I58" s="15">
+      <c r="I58" s="8">
         <v>0.2857142857142857</v>
       </c>
-      <c r="J58" s="15">
+      <c r="J58" s="8">
         <v>1.1904761904761899E-2</v>
       </c>
       <c r="K58" s="1">
@@ -2941,8 +2941,8 @@
       </c>
     </row>
     <row r="59" spans="2:11">
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
       <c r="D59" s="1">
         <v>0</v>
       </c>
@@ -2952,16 +2952,16 @@
       <c r="F59" s="1">
         <v>0</v>
       </c>
-      <c r="G59" s="15">
+      <c r="G59" s="8">
         <v>1.1428571428571428</v>
       </c>
-      <c r="H59" s="15">
+      <c r="H59" s="8">
         <v>0.16666666666666669</v>
       </c>
-      <c r="I59" s="15">
+      <c r="I59" s="8">
         <v>-0.14285714285714285</v>
       </c>
-      <c r="J59" s="15">
+      <c r="J59" s="8">
         <v>-0.13095238095238093</v>
       </c>
       <c r="K59" s="1">
@@ -2969,8 +2969,8 @@
       </c>
     </row>
     <row r="60" spans="2:11">
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
       <c r="D60" s="1">
         <v>0</v>
       </c>
@@ -2983,13 +2983,13 @@
       <c r="G60" s="1">
         <v>0</v>
       </c>
-      <c r="H60" s="15">
+      <c r="H60" s="8">
         <v>-0.16666666666666666</v>
       </c>
       <c r="I60" s="1">
         <v>0</v>
       </c>
-      <c r="J60" s="15">
+      <c r="J60" s="8">
         <v>-8.3333333333333329E-2</v>
       </c>
       <c r="K60" s="1">
@@ -2997,8 +2997,8 @@
       </c>
     </row>
     <row r="61" spans="2:11">
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
       <c r="D61" s="1">
         <f t="array" ref="D61:K61">D56:K56/G56</f>
         <v>0</v>
@@ -3012,13 +3012,13 @@
       <c r="G61" s="1">
         <v>1</v>
       </c>
-      <c r="H61" s="15">
+      <c r="H61" s="8">
         <v>0.46666666666666717</v>
       </c>
       <c r="I61" s="1">
         <v>-0.30000000000000004</v>
       </c>
-      <c r="J61" s="15">
+      <c r="J61" s="8">
         <v>-0.21666666666666642</v>
       </c>
       <c r="K61" s="1">
@@ -3043,13 +3043,13 @@
       <c r="G63" s="1">
         <v>0</v>
       </c>
-      <c r="H63" s="15">
+      <c r="H63" s="8">
         <v>-0.63333333333333419</v>
       </c>
       <c r="I63" s="1">
         <v>0.8</v>
       </c>
-      <c r="J63" s="15">
+      <c r="J63" s="8">
         <v>0.38333333333333297</v>
       </c>
       <c r="K63" s="1">
@@ -3072,13 +3072,13 @@
       <c r="G64" s="1">
         <v>0</v>
       </c>
-      <c r="H64" s="15">
+      <c r="H64" s="8">
         <v>-0.3666666666666672</v>
       </c>
       <c r="I64" s="1">
         <v>0.20000000000000007</v>
       </c>
-      <c r="J64" s="15">
+      <c r="J64" s="8">
         <v>0.11666666666666639</v>
       </c>
       <c r="K64" s="1">
@@ -3086,10 +3086,10 @@
       </c>
     </row>
     <row r="65" spans="2:11">
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C65" s="11"/>
+      <c r="C65" s="13"/>
       <c r="D65" s="1">
         <v>0</v>
       </c>
@@ -3102,13 +3102,13 @@
       <c r="G65" s="1">
         <v>0</v>
       </c>
-      <c r="H65" s="15">
+      <c r="H65" s="8">
         <v>-0.16666666666666666</v>
       </c>
       <c r="I65" s="1">
         <v>0</v>
       </c>
-      <c r="J65" s="15">
+      <c r="J65" s="8">
         <v>-8.3333333333333329E-2</v>
       </c>
       <c r="K65" s="1">
@@ -3116,8 +3116,8 @@
       </c>
     </row>
     <row r="66" spans="2:11">
-      <c r="B66" s="11"/>
-      <c r="C66" s="11"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
       <c r="D66" s="1">
         <v>0</v>
       </c>
@@ -3130,13 +3130,13 @@
       <c r="G66" s="1">
         <v>1</v>
       </c>
-      <c r="H66" s="15">
+      <c r="H66" s="8">
         <v>0.46666666666666717</v>
       </c>
       <c r="I66" s="1">
         <v>-0.30000000000000004</v>
       </c>
-      <c r="J66" s="15">
+      <c r="J66" s="8">
         <v>-0.21666666666666642</v>
       </c>
       <c r="K66" s="1">
@@ -3144,95 +3144,89 @@
       </c>
     </row>
     <row r="68" spans="2:11">
-      <c r="B68" s="18" t="s">
+      <c r="B68" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="15">
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="8">
         <v>-0.63333333333333419</v>
       </c>
-      <c r="H68" s="15">
+      <c r="H68" s="8">
         <v>0.8</v>
       </c>
-      <c r="I68" s="15">
+      <c r="I68" s="8">
         <v>0.38333333333333297</v>
       </c>
-      <c r="J68" s="15">
+      <c r="J68" s="8">
         <v>1.2000000000000002</v>
       </c>
     </row>
     <row r="69" spans="2:11">
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="15">
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="8">
         <v>-0.3666666666666672</v>
       </c>
-      <c r="H69" s="15">
+      <c r="H69" s="8">
         <v>0.20000000000000007</v>
       </c>
-      <c r="I69" s="15">
+      <c r="I69" s="8">
         <v>0.11666666666666639</v>
       </c>
-      <c r="J69" s="15">
+      <c r="J69" s="8">
         <v>0.8</v>
       </c>
     </row>
     <row r="70" spans="2:11">
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="15">
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="8">
         <v>-0.16666666666666666</v>
       </c>
-      <c r="H70" s="15">
-        <v>0</v>
-      </c>
-      <c r="I70" s="15">
+      <c r="H70" s="8">
+        <v>0</v>
+      </c>
+      <c r="I70" s="8">
         <v>-8.3333333333333329E-2</v>
       </c>
-      <c r="J70" s="15">
+      <c r="J70" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:11">
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="15">
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="8">
         <v>0.46666666666666717</v>
       </c>
-      <c r="H71" s="15">
+      <c r="H71" s="8">
         <v>-0.30000000000000004</v>
       </c>
-      <c r="I71" s="15">
+      <c r="I71" s="8">
         <v>-0.21666666666666642</v>
       </c>
-      <c r="J71" s="15">
+      <c r="J71" s="8">
         <v>-0.70000000000000007</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B55:C56"/>
-    <mergeCell ref="B58:C61"/>
-    <mergeCell ref="B63:C64"/>
-    <mergeCell ref="B65:C66"/>
-    <mergeCell ref="B68:F71"/>
-    <mergeCell ref="B43:C44"/>
-    <mergeCell ref="B45:C46"/>
-    <mergeCell ref="B48:C51"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="E8:F9"/>
     <mergeCell ref="H23:I23"/>
     <mergeCell ref="B33:C34"/>
     <mergeCell ref="B35:C36"/>
@@ -3242,10 +3236,16 @@
     <mergeCell ref="E16:F18"/>
     <mergeCell ref="F20:F21"/>
     <mergeCell ref="G20:G21"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="B43:C44"/>
+    <mergeCell ref="B45:C46"/>
+    <mergeCell ref="B48:C51"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C56"/>
+    <mergeCell ref="B58:C61"/>
+    <mergeCell ref="B63:C64"/>
+    <mergeCell ref="B65:C66"/>
+    <mergeCell ref="B68:F71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
